--- a/Tables/2023_07_18/Table-S1.xlsx
+++ b/Tables/2023_07_18/Table-S1.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gdirenzo/Documents/GitHub/globi_msomAndsciChecklists/Tables/2023_07_18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A037B691-DEC9-BE4C-A418-692341F56D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72409806-C5DC-6042-9C80-5474E073B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="500" windowWidth="29880" windowHeight="23400" xr2:uid="{9865B5D6-A7E1-DA4D-9A62-8F75247B9229}"/>
+    <workbookView xWindow="4640" yWindow="500" windowWidth="37580" windowHeight="25880" activeTab="1" xr2:uid="{9865B5D6-A7E1-DA4D-9A62-8F75247B9229}"/>
   </bookViews>
   <sheets>
     <sheet name="sample_size_per_citation" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>A. Thessen. 2014. Species associations extracted from EOL text data objects via text mining.</t>
   </si>
@@ -188,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,27 +325,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -711,30 +699,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1112,580 +1094,580 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A560307-8F22-CC44-BBA2-DC517142CD54}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A25" zoomScale="168" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="53.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="30" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="13" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="4">
         <v>21</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>50</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:4" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>100</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>83</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>2</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>15</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" ht="12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:4" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="6">
         <v>138</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="6">
         <v>500</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="6">
         <v>2251</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:3" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="6">
         <v>230</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="6">
         <v>816</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>1</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="4">
         <v>4</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="4">
         <v>10</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="4">
         <v>7</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="4">
         <v>2</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="43" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="4">
         <v>2</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="253" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+    <row r="30" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="4">
         <v>9</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="4">
         <v>8</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="4">
         <v>9</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="71" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="4">
         <v>4</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="4">
         <v>27</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="4">
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
+    <row r="35" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="4">
         <v>34</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="4">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+    <row r="36" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="4">
         <v>2</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+    <row r="37" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="4">
         <v>5</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+    <row r="38" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="4" customFormat="1" ht="43" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:3" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="6">
         <v>143</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="6">
         <v>355</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="71" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="4">
         <v>44</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="4">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="6">
         <v>217</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="6">
         <v>3767</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="4">
         <v>7</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="4">
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+    <row r="43" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="4">
         <v>3</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+    <row r="44" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="4">
         <v>2</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+    <row r="45" spans="1:3" ht="12" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="4">
         <v>49</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
+    <row r="46" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="4">
         <v>13</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="4">
         <v>9</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="48" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="6">
         <v>106</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="6">
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
+    <row r="49" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="4">
         <v>1</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+    <row r="50" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="4">
         <v>4</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
+    <row r="51" spans="1:3" s="6" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="8">
         <v>3</v>
       </c>
     </row>
@@ -1696,4 +1678,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C374513D-DD6E-3F4E-B7DA-1AC2703DFEC3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="400" workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="38" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="6" customFormat="1" ht="25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>138</v>
+      </c>
+      <c r="C3" s="4">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>500</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <v>230</v>
+      </c>
+      <c r="C5" s="4">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <v>143</v>
+      </c>
+      <c r="C6" s="4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8">
+        <v>217</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>